--- a/php/files/export_global.xlsx
+++ b/php/files/export_global.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
     <t>end</t>
   </si>
   <si>
+    <t>nb_heures</t>
+  </si>
+  <si>
     <t>id_projet</t>
   </si>
   <si>
@@ -65,16 +68,19 @@
     <t>personne</t>
   </si>
   <si>
-    <t>dae6ed3e-a5e6-03f0-77f7-e6c04daa1d2c</t>
-  </si>
-  <si>
-    <t>qqqqq</t>
-  </si>
-  <si>
-    <t>2023-01-02 05:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-08 09:00:00</t>
+    <t>bb08da64-7c1f-2bfd-1790-c954b8a811de</t>
+  </si>
+  <si>
+    <t>gdhezhdzged</t>
+  </si>
+  <si>
+    <t>2023-01-04 08:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-04 12:00:00</t>
+  </si>
+  <si>
+    <t>ANIM_TRANSVERSALE</t>
   </si>
   <si>
     <t>PRAM 2022</t>
@@ -86,46 +92,82 @@
     <t>f</t>
   </si>
   <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>Benoit Perceval</t>
+  </si>
+  <si>
+    <t>82324207-8476-a100-0564-9d4e18319302</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>2023-01-05 07:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-05 13:30:00</t>
+  </si>
+  <si>
+    <t>GEOM_CARTOGRAPHIE</t>
+  </si>
+  <si>
+    <t>Etude divette 2021-2022</t>
+  </si>
+  <si>
+    <t>#3a5a6a</t>
+  </si>
+  <si>
+    <t>3cc256b6-abe6-48ac-8a9f-416da7e42d29</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>2023-01-06 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:00</t>
+  </si>
+  <si>
+    <t>ADMIN_DIVERS</t>
+  </si>
+  <si>
+    <t>Cellule Animation zones humides 2021</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
     <t>2023-01-04</t>
   </si>
   <si>
-    <t>#800080</t>
-  </si>
-  <si>
-    <t>Benoit Perceval</t>
-  </si>
-  <si>
-    <t>efcef1cd-124d-47d5-bf79-d5faef54d7e9</t>
-  </si>
-  <si>
-    <t>blabla</t>
-  </si>
-  <si>
-    <t>2023-01-06 05:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:00</t>
-  </si>
-  <si>
-    <t>Cellule Animation zones humides 2021</t>
-  </si>
-  <si>
-    <t>Réunion</t>
-  </si>
-  <si>
     <t>#f7942a</t>
   </si>
   <si>
-    <t>50e064e1-9f59-30be-a567-811713d27ac6</t>
-  </si>
-  <si>
-    <t>sfsef</t>
-  </si>
-  <si>
-    <t>2023-01-09 06:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-15 09:00:00</t>
+    <t>dd201eba-5e29-53b1-c7c8-fa1616172241</t>
+  </si>
+  <si>
+    <t>2023-01-07 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-07 13:30:00</t>
+  </si>
+  <si>
+    <t>5dde2665-1a23-4ff7-6d59-2d952a8bdd67</t>
+  </si>
+  <si>
+    <t>zzzzzzzugb</t>
+  </si>
+  <si>
+    <t>2023-01-08 06:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-08 13:30:00</t>
   </si>
 </sst>
 </file>
@@ -461,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,143 +560,263 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>3.5</v>
+      </c>
+      <c r="F2">
         <v>273</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2188</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
         <v>22</v>
       </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>214</v>
+      </c>
+      <c r="G3">
+        <v>699</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+      <c r="F4">
+        <v>254</v>
+      </c>
+      <c r="G4">
+        <v>638</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>699</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>273</v>
+      </c>
+      <c r="G6">
+        <v>699</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="Q6" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>254</v>
-      </c>
-      <c r="F3">
-        <v>638</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>273</v>
-      </c>
-      <c r="F4">
-        <v>2188</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
